--- a/Risk Register/Risk_RegisterUtsav.xlsx
+++ b/Risk Register/Risk_RegisterUtsav.xlsx
@@ -2145,6 +2145,12 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2186,12 +2192,6 @@
     <xf numFmtId="0" fontId="47" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2293,10 +2293,44 @@
     <xf numFmtId="0" fontId="19" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="29" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="29" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="31" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2338,40 +2372,6 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="31" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="31" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2747,7 +2747,7 @@
   <dimension ref="A1:Q99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="10" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="12.75"/>
@@ -2773,121 +2773,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21.75" thickBot="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="115"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="117"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1">
-      <c r="A2" s="116" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="116" t="s">
+      <c r="A2" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="116" t="s">
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="118"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="120"/>
     </row>
     <row r="3" spans="1:17" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="111" t="s">
+      <c r="D3" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="124" t="s">
+      <c r="E3" s="109" t="s">
         <v>34</v>
       </c>
       <c r="F3" s="126" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="127"/>
-      <c r="H3" s="109" t="s">
+      <c r="H3" s="111" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="129" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="127"/>
-      <c r="K3" s="124" t="s">
+      <c r="K3" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="122" t="s">
+      <c r="L3" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="111" t="s">
+      <c r="M3" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="111" t="s">
+      <c r="N3" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="119" t="s">
+      <c r="O3" s="121" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="47" customFormat="1" ht="85.5" customHeight="1">
       <c r="A4" s="128"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="125"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="48" t="s">
         <v>103</v>
       </c>
       <c r="G4" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="110"/>
+      <c r="H4" s="112"/>
       <c r="I4" s="49" t="s">
         <v>103</v>
       </c>
       <c r="J4" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="125"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="119"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="121"/>
     </row>
     <row r="5" spans="1:17" ht="31.5">
       <c r="A5" s="50">
         <v>1.1000000000000001</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" s="52" t="s">
         <v>123</v>
@@ -2917,10 +2917,10 @@
         <v>125</v>
       </c>
       <c r="L5" s="56">
-        <v>43542</v>
+        <v>43908</v>
       </c>
       <c r="M5" s="57">
-        <v>43569</v>
+        <v>43935</v>
       </c>
       <c r="N5" s="55" t="s">
         <v>10</v>
@@ -2973,10 +2973,10 @@
         <v>116</v>
       </c>
       <c r="L6" s="56">
-        <v>43536</v>
+        <v>43902</v>
       </c>
       <c r="M6" s="57">
-        <v>43567</v>
+        <v>43933</v>
       </c>
       <c r="N6" s="55" t="s">
         <v>14</v>
@@ -3029,10 +3029,10 @@
         <v>113</v>
       </c>
       <c r="L7" s="102">
-        <v>43536</v>
+        <v>43902</v>
       </c>
       <c r="M7" s="103">
-        <v>43567</v>
+        <v>43933</v>
       </c>
       <c r="N7" s="100" t="s">
         <v>10</v>
@@ -3085,10 +3085,10 @@
         <v>126</v>
       </c>
       <c r="L8" s="102">
-        <v>43536</v>
+        <v>43902</v>
       </c>
       <c r="M8" s="103">
-        <v>43567</v>
+        <v>43933</v>
       </c>
       <c r="N8" s="100" t="s">
         <v>10</v>
@@ -3106,7 +3106,7 @@
         <v>Amber</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="105" customFormat="1" ht="63">
+    <row r="9" spans="1:17" s="105" customFormat="1" ht="47.25">
       <c r="A9" s="95">
         <v>5.0999999999999996</v>
       </c>
@@ -5666,6 +5666,7 @@
   </sheetData>
   <autoFilter ref="A4:Q99"/>
   <mergeCells count="17">
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
@@ -5682,7 +5683,6 @@
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="O5:O99">
@@ -6773,22 +6773,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.75" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
       <c r="O1" s="45" t="s">
         <v>101</v>
       </c>
@@ -6904,12 +6904,12 @@
       <c r="C9" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="186" t="s">
+      <c r="D9" s="163" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="186"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
@@ -6930,12 +6930,12 @@
       <c r="C10" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="187" t="s">
+      <c r="D10" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
       <c r="J10" s="27"/>
@@ -6956,12 +6956,12 @@
       <c r="C11" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="187" t="s">
+      <c r="D11" s="164" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="187"/>
-      <c r="F11" s="187"/>
-      <c r="G11" s="187"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="164"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
@@ -6982,12 +6982,12 @@
       <c r="C12" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="187" t="s">
+      <c r="D12" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="187"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="187"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
@@ -7008,12 +7008,12 @@
       <c r="C13" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="187" t="s">
+      <c r="D13" s="164" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="187"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="187"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
@@ -7034,12 +7034,12 @@
       <c r="C14" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="187" t="s">
+      <c r="D14" s="164" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="187"/>
-      <c r="F14" s="187"/>
-      <c r="G14" s="187"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
@@ -7149,163 +7149,163 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="32"/>
-      <c r="B22" s="185" t="s">
+      <c r="B22" s="166" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="185"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="185"/>
-      <c r="F22" s="185" t="s">
+      <c r="C22" s="166"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="166" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="185"/>
-      <c r="H22" s="185"/>
-      <c r="I22" s="185"/>
-      <c r="J22" s="185" t="s">
+      <c r="G22" s="166"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="166" t="s">
         <v>61</v>
       </c>
-      <c r="K22" s="185"/>
-      <c r="L22" s="185"/>
-      <c r="M22" s="185"/>
-      <c r="N22" s="185"/>
-      <c r="O22" s="185"/>
-      <c r="P22" s="185"/>
-      <c r="Q22" s="185"/>
+      <c r="K22" s="166"/>
+      <c r="L22" s="166"/>
+      <c r="M22" s="166"/>
+      <c r="N22" s="166"/>
+      <c r="O22" s="166"/>
+      <c r="P22" s="166"/>
+      <c r="Q22" s="166"/>
     </row>
     <row r="23" spans="1:17" ht="168" customHeight="1">
       <c r="A23" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="178" t="s">
+      <c r="B23" s="162" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="178"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="184" t="s">
+      <c r="C23" s="162"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="184"/>
-      <c r="H23" s="184"/>
-      <c r="I23" s="184"/>
-      <c r="J23" s="184" t="s">
+      <c r="G23" s="161"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="K23" s="184"/>
-      <c r="L23" s="184"/>
-      <c r="M23" s="184"/>
-      <c r="N23" s="184"/>
-      <c r="O23" s="184"/>
-      <c r="P23" s="184"/>
-      <c r="Q23" s="184"/>
+      <c r="K23" s="161"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="161"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="161"/>
+      <c r="P23" s="161"/>
+      <c r="Q23" s="161"/>
     </row>
     <row r="24" spans="1:17" ht="156.75" customHeight="1">
       <c r="A24" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="178" t="s">
+      <c r="B24" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="178"/>
-      <c r="D24" s="178"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="184" t="s">
+      <c r="C24" s="162"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="161" t="s">
         <v>80</v>
       </c>
-      <c r="G24" s="184"/>
-      <c r="H24" s="184"/>
-      <c r="I24" s="184"/>
-      <c r="J24" s="184" t="s">
+      <c r="G24" s="161"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="K24" s="184"/>
-      <c r="L24" s="184"/>
-      <c r="M24" s="184"/>
-      <c r="N24" s="184"/>
-      <c r="O24" s="184"/>
-      <c r="P24" s="184"/>
-      <c r="Q24" s="184"/>
+      <c r="K24" s="161"/>
+      <c r="L24" s="161"/>
+      <c r="M24" s="161"/>
+      <c r="N24" s="161"/>
+      <c r="O24" s="161"/>
+      <c r="P24" s="161"/>
+      <c r="Q24" s="161"/>
     </row>
     <row r="25" spans="1:17" ht="134.25" customHeight="1">
       <c r="A25" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="178" t="s">
+      <c r="B25" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="178"/>
-      <c r="D25" s="178"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="184" t="s">
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="161" t="s">
         <v>83</v>
       </c>
-      <c r="G25" s="184"/>
-      <c r="H25" s="184"/>
-      <c r="I25" s="184"/>
-      <c r="J25" s="184" t="s">
+      <c r="G25" s="161"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="161" t="s">
         <v>84</v>
       </c>
-      <c r="K25" s="184"/>
-      <c r="L25" s="184"/>
-      <c r="M25" s="184"/>
-      <c r="N25" s="184"/>
-      <c r="O25" s="184"/>
-      <c r="P25" s="184"/>
-      <c r="Q25" s="184"/>
+      <c r="K25" s="161"/>
+      <c r="L25" s="161"/>
+      <c r="M25" s="161"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="161"/>
+      <c r="P25" s="161"/>
+      <c r="Q25" s="161"/>
     </row>
     <row r="26" spans="1:17" ht="109.5" customHeight="1">
       <c r="A26" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="178" t="s">
+      <c r="B26" s="162" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="178"/>
-      <c r="D26" s="178"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="184" t="s">
+      <c r="C26" s="162"/>
+      <c r="D26" s="162"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="161" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="184"/>
-      <c r="H26" s="184"/>
-      <c r="I26" s="184"/>
-      <c r="J26" s="184" t="s">
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="184"/>
-      <c r="L26" s="184"/>
-      <c r="M26" s="184"/>
-      <c r="N26" s="184"/>
-      <c r="O26" s="184"/>
-      <c r="P26" s="184"/>
-      <c r="Q26" s="184"/>
+      <c r="K26" s="161"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="161"/>
+      <c r="N26" s="161"/>
+      <c r="O26" s="161"/>
+      <c r="P26" s="161"/>
+      <c r="Q26" s="161"/>
     </row>
     <row r="27" spans="1:17" ht="100.5" customHeight="1">
       <c r="A27" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="178" t="s">
+      <c r="B27" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="178"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="184" t="s">
+      <c r="C27" s="162"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="184"/>
-      <c r="H27" s="184"/>
-      <c r="I27" s="184"/>
-      <c r="J27" s="184" t="s">
+      <c r="G27" s="161"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="161" t="s">
         <v>90</v>
       </c>
-      <c r="K27" s="184"/>
-      <c r="L27" s="184"/>
-      <c r="M27" s="184"/>
-      <c r="N27" s="184"/>
-      <c r="O27" s="184"/>
-      <c r="P27" s="184"/>
-      <c r="Q27" s="184"/>
+      <c r="K27" s="161"/>
+      <c r="L27" s="161"/>
+      <c r="M27" s="161"/>
+      <c r="N27" s="161"/>
+      <c r="O27" s="161"/>
+      <c r="P27" s="161"/>
+      <c r="Q27" s="161"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1">
       <c r="G28" s="27"/>
@@ -7326,172 +7326,172 @@
     </row>
     <row r="30" spans="1:17" ht="16.5" thickBot="1"/>
     <row r="31" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A31" s="173" t="s">
+      <c r="A31" s="185" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="176" t="s">
+      <c r="C31" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="176" t="s">
+      <c r="D31" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="181" t="s">
+      <c r="E31" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="179" t="s">
+      <c r="F31" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="179" t="s">
+      <c r="G31" s="171" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A32" s="174"/>
+      <c r="A32" s="186"/>
       <c r="B32" s="39">
         <v>5</v>
       </c>
-      <c r="C32" s="177"/>
-      <c r="D32" s="177"/>
-      <c r="E32" s="182"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="180"/>
+      <c r="C32" s="170"/>
+      <c r="D32" s="170"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="172"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="174"/>
+      <c r="A33" s="186"/>
       <c r="B33" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="161" t="s">
+      <c r="C33" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="176" t="s">
+      <c r="D33" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="176" t="s">
+      <c r="E33" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="179" t="s">
+      <c r="F33" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="179" t="s">
+      <c r="G33" s="171" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A34" s="174"/>
+      <c r="A34" s="186"/>
       <c r="B34" s="39">
         <v>4</v>
       </c>
-      <c r="C34" s="162"/>
-      <c r="D34" s="177"/>
-      <c r="E34" s="177"/>
-      <c r="F34" s="180"/>
-      <c r="G34" s="180"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="170"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="172"/>
+      <c r="G34" s="172"/>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="174"/>
+      <c r="A35" s="186"/>
       <c r="B35" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="161" t="s">
+      <c r="C35" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="161" t="s">
+      <c r="D35" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="161" t="s">
+      <c r="E35" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="176" t="s">
+      <c r="F35" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="G35" s="176" t="s">
+      <c r="G35" s="169" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A36" s="174"/>
+      <c r="A36" s="186"/>
       <c r="B36" s="39">
         <v>3</v>
       </c>
-      <c r="C36" s="162"/>
-      <c r="D36" s="162"/>
-      <c r="E36" s="162"/>
-      <c r="F36" s="177"/>
-      <c r="G36" s="177"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="170"/>
+      <c r="G36" s="170"/>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="174"/>
+      <c r="A37" s="186"/>
       <c r="B37" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="161" t="s">
+      <c r="C37" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="161" t="s">
+      <c r="D37" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="161" t="s">
+      <c r="E37" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="161" t="s">
+      <c r="F37" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="G37" s="161" t="s">
+      <c r="G37" s="167" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A38" s="174"/>
+      <c r="A38" s="186"/>
       <c r="B38" s="39">
         <v>2</v>
       </c>
-      <c r="C38" s="162"/>
-      <c r="D38" s="162"/>
-      <c r="E38" s="162"/>
-      <c r="F38" s="162"/>
-      <c r="G38" s="162"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
+      <c r="E38" s="168"/>
+      <c r="F38" s="168"/>
+      <c r="G38" s="168"/>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="174"/>
+      <c r="A39" s="186"/>
       <c r="B39" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="161" t="s">
+      <c r="C39" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="161" t="s">
+      <c r="D39" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="161" t="s">
+      <c r="E39" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="161" t="s">
+      <c r="F39" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="G39" s="161" t="s">
+      <c r="G39" s="167" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A40" s="175"/>
+      <c r="A40" s="187"/>
       <c r="B40" s="39">
         <v>1</v>
       </c>
-      <c r="C40" s="162"/>
-      <c r="D40" s="162"/>
-      <c r="E40" s="162"/>
-      <c r="F40" s="162"/>
-      <c r="G40" s="162"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
+      <c r="E40" s="168"/>
+      <c r="F40" s="168"/>
+      <c r="G40" s="168"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="163" t="s">
+      <c r="A41" s="175" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="164"/>
+      <c r="B41" s="176"/>
       <c r="C41" s="40" t="s">
         <v>56</v>
       </c>
@@ -7509,8 +7509,8 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A42" s="165"/>
-      <c r="B42" s="166"/>
+      <c r="A42" s="177"/>
+      <c r="B42" s="178"/>
       <c r="C42" s="39">
         <v>1</v>
       </c>
@@ -7528,46 +7528,68 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A43" s="167"/>
-      <c r="B43" s="168"/>
-      <c r="C43" s="169" t="s">
+      <c r="A43" s="179"/>
+      <c r="B43" s="180"/>
+      <c r="C43" s="181" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="170"/>
-      <c r="E43" s="170"/>
-      <c r="F43" s="170"/>
-      <c r="G43" s="171"/>
+      <c r="D43" s="182"/>
+      <c r="E43" s="182"/>
+      <c r="F43" s="182"/>
+      <c r="G43" s="183"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="172" t="s">
+      <c r="A45" s="184" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="172"/>
-      <c r="C45" s="172"/>
-      <c r="D45" s="172"/>
-      <c r="E45" s="172"/>
-      <c r="F45" s="172"/>
-      <c r="G45" s="172"/>
-      <c r="H45" s="172"/>
-      <c r="I45" s="172"/>
-      <c r="J45" s="172"/>
-      <c r="K45" s="172"/>
-      <c r="L45" s="172"/>
-      <c r="M45" s="172"/>
-      <c r="N45" s="172"/>
-      <c r="O45" s="172"/>
+      <c r="B45" s="184"/>
+      <c r="C45" s="184"/>
+      <c r="D45" s="184"/>
+      <c r="E45" s="184"/>
+      <c r="F45" s="184"/>
+      <c r="G45" s="184"/>
+      <c r="H45" s="184"/>
+      <c r="I45" s="184"/>
+      <c r="J45" s="184"/>
+      <c r="K45" s="184"/>
+      <c r="L45" s="184"/>
+      <c r="M45" s="184"/>
+      <c r="N45" s="184"/>
+      <c r="O45" s="184"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="54">
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="A41:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="A45:O45"/>
+    <mergeCell ref="A31:A40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="J27:Q27"/>
     <mergeCell ref="J22:Q22"/>
@@ -7584,36 +7606,14 @@
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="B24:E24"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="A41:B43"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="A45:O45"/>
-    <mergeCell ref="A31:A40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
